--- a/Bicycle-Rental/asset/bicycle.xlsx
+++ b/Bicycle-Rental/asset/bicycle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\UIT\CS511\Bicycle_Rental\Bicycle-Rental\asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bicycle-Rental\Bicycle-Rental\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39668DDB-3938-430C-9C30-B723DAC3BBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3B9CAC-F0F9-4356-8330-260F0ADB4D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="87">
   <si>
     <t>maxe</t>
   </si>
@@ -55,19 +55,270 @@
   </si>
   <si>
     <t>tocdo</t>
+  </si>
+  <si>
+    <t>GIANT TCR ADV D 0 2023</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>G0</t>
+  </si>
+  <si>
+    <t>Road Bike</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>27 Speed Bike</t>
+  </si>
+  <si>
+    <t>Trek Bicycle 3900 is one of the best bikes for cycling holidays in Vietnam? We have a fleet of Trek Bike 3 Series including Trek bicycle 3900 (front suspension) to rent out at our garage in downtown Hanoi. The bike rental comes with water bottle holder…</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>24 Speed Bike</t>
+  </si>
+  <si>
+    <t>dl001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>Trek Bicycle 3900</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Trek Bicycle 4300</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Trek Bicycle 4300 is one of the best bikes for cycling in Vietnam? We have a fleet of Trek Bike 4 Series including Trek bicycle 4300 (front suspension) to rent out at our garage in downtown Hanoi. The bike rental comes with water bottle holder, helmet, and simple spare toolkit.</t>
+  </si>
+  <si>
+    <t>dl003</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Trek Bike 4500</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Trek Bike 4500 is one of the best bikes for cycling in Vietnam? We have a great selection of Trek Bikes 4 Series including this Trek bicycle 4500 (front suspension) to rent out at our garage in downtown Hanoi. The bike rental comes with water bottle holder, helmet, and simple spare toolkit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0</t>
+  </si>
+  <si>
+    <t>dl004</t>
+  </si>
+  <si>
+    <t>Mountain Bike</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>dl005</t>
+  </si>
+  <si>
+    <t>dl006</t>
+  </si>
+  <si>
+    <t>Pinarello F12 105 R7000</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>The drivetrain is the best in the test. Instead of 24-speed Acera or Alivio it’s 27-speed Deore, which gives smaller steps between gears as well as a handy 22x34T bottom for climbing. While the 4500 comes with V-brakes, its wheels are ready for upgrading thanks to disc hubs – so you can skip cable discs and go straight to the hydraulics that any upgrader would want anyway.</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>2023 TCR ADV D</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Xe Đạp Đua 2023 TCR ADV D 3 Xanh, khung Advanced – Grade Composite, disc, tay đề Shimano Tiagra 2x10S, vỏ xe Giant Gavia Tubeless System 700x25C</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>We have Giant AnyRoad bicycle to rent out at our garage in Ho Chi Minh. Bikes of series 2015 at different size (S, M, ML, L). We have Giant Anyroad bicycles for hire only in our bike shop in Hanoi. The bikes are ready to delivered at our garage…</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>LIV 2022 AVAIL AR 2</t>
+  </si>
+  <si>
+    <t>L0</t>
+  </si>
+  <si>
+    <t>Xe Đạp Đua LIV 2022 AVAIL AR 2, khung ALUXX-Grade Aluminium, 12x142mm thru-axle, disc, tay đề Shimano Tiagra ST-R5025, vỏ xe Giant Gavia Fondo 2, 700x32c, tubeless</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>GIANT 2022 REVOLT ADV 2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Mẫu xe đạp đường trường hỗn hợp với cỡ bánh 700x38C đang là xu hướng mới
+Đây là phiên bản quốc tế được sản xuất tại Đài Loan, với khung carbon siêu nhẹ
+Bộ chuyển động Shimano 2×11 tốc thế hệ mới cùng hệ thống phanh thủy lực cao cấp an toàn và nhẹ nhàng</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>Youth LIV Enchant 24 Disc 2022 </t>
+  </si>
+  <si>
+    <t>Y0</t>
+  </si>
+  <si>
+    <t>Single-Speed Bike</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Kids</t>
+  </si>
+  <si>
+    <t>Xe đạp trẻ em năng động cho bé</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Vicky VM20 Girl </t>
+  </si>
+  <si>
+    <t>Xe đạp trẻ em Vicky VM20 Girl – Xe phù hợp cho bé từ 6 – 11, Khung  Vicky Hi-Ten Steel 20″*11″, Ghi đông Small Rise, Phanh V-Brake, Thắng bố đùm, Lốp xe 20″*2.125, Trọng lượng 12kg, tải trọng 80kg</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>10 Speed Bike</t>
+  </si>
+  <si>
+    <t>V0</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>TrinX Junior 4.0 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xe đạp là món quà ý nghĩa nhất Bố Mẹ dành cho bé. Với người lớn xe đạp không chỉ là phương tiện giao thông lành mạnh mà còn là phương pháp hiệu quả để rèn luyện sức khỏe. Còn đối với trẻ em, xe đạp không chỉ là món đồ chơi bổ ích giúp các bé vận động hàng ngày mà còn mang lại nhiều tác dụng mà các bậc phụ huynh không thể ngờ tới. Bởi xe đạp sẽ giúp cho các bé trở nên thông minh, tự lập và có chứng kiến tốt ngay từ khi còn nhỏ. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,8 +341,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,51 +631,984 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bicycle-Rental/asset/bicycle.xlsx
+++ b/Bicycle-Rental/asset/bicycle.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\UIT\CS511\Bicycle_Rental\Bicycle-Rental\asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bicycle-Rental\Bicycle-Rental\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39668DDB-3938-430C-9C30-B723DAC3BBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DA69E2-F756-4D26-93D7-2023872B8A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$30</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="86">
   <si>
     <t>maxe</t>
   </si>
@@ -39,9 +42,6 @@
     <t>giathue</t>
   </si>
   <si>
-    <t>madiadiem</t>
-  </si>
-  <si>
     <t>desciption</t>
   </si>
   <si>
@@ -55,19 +55,270 @@
   </si>
   <si>
     <t>tocdo</t>
+  </si>
+  <si>
+    <t>GIANT TCR ADV D 0 2023</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>G0</t>
+  </si>
+  <si>
+    <t>Road Bike</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>27 Speed Bike</t>
+  </si>
+  <si>
+    <t>Trek Bicycle 3900 is one of the best bikes for cycling holidays in Vietnam? We have a fleet of Trek Bike 3 Series including Trek bicycle 3900 (front suspension) to rent out at our garage in downtown Hanoi. The bike rental comes with water bottle holder…</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>24 Speed Bike</t>
+  </si>
+  <si>
+    <t>dl001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>Trek Bicycle 3900</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Trek Bicycle 4300</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Trek Bicycle 4300 is one of the best bikes for cycling in Vietnam? We have a fleet of Trek Bike 4 Series including Trek bicycle 4300 (front suspension) to rent out at our garage in downtown Hanoi. The bike rental comes with water bottle holder, helmet, and simple spare toolkit.</t>
+  </si>
+  <si>
+    <t>dl003</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Trek Bike 4500</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Trek Bike 4500 is one of the best bikes for cycling in Vietnam? We have a great selection of Trek Bikes 4 Series including this Trek bicycle 4500 (front suspension) to rent out at our garage in downtown Hanoi. The bike rental comes with water bottle holder, helmet, and simple spare toolkit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0</t>
+  </si>
+  <si>
+    <t>Mountain Bike</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>dl005</t>
+  </si>
+  <si>
+    <t>dl006</t>
+  </si>
+  <si>
+    <t>Pinarello F12 105 R7000</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>The drivetrain is the best in the test. Instead of 24-speed Acera or Alivio it’s 27-speed Deore, which gives smaller steps between gears as well as a handy 22x34T bottom for climbing. While the 4500 comes with V-brakes, its wheels are ready for upgrading thanks to disc hubs – so you can skip cable discs and go straight to the hydraulics that any upgrader would want anyway.</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>2023 TCR ADV D</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Xe Đạp Đua 2023 TCR ADV D 3 Xanh, khung Advanced – Grade Composite, disc, tay đề Shimano Tiagra 2x10S, vỏ xe Giant Gavia Tubeless System 700x25C</t>
+  </si>
+  <si>
+    <t>We have Giant AnyRoad bicycle to rent out at our garage in Ho Chi Minh. Bikes of series 2015 at different size (S, M, ML, L). We have Giant Anyroad bicycles for hire only in our bike shop in Hanoi. The bikes are ready to delivered at our garage…</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>LIV 2022 AVAIL AR 2</t>
+  </si>
+  <si>
+    <t>L0</t>
+  </si>
+  <si>
+    <t>Xe Đạp Đua LIV 2022 AVAIL AR 2, khung ALUXX-Grade Aluminium, 12x142mm thru-axle, disc, tay đề Shimano Tiagra ST-R5025, vỏ xe Giant Gavia Fondo 2, 700x32c, tubeless</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>GIANT 2022 REVOLT ADV 2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Mẫu xe đạp đường trường hỗn hợp với cỡ bánh 700x38C đang là xu hướng mới
+Đây là phiên bản quốc tế được sản xuất tại Đài Loan, với khung carbon siêu nhẹ
+Bộ chuyển động Shimano 2×11 tốc thế hệ mới cùng hệ thống phanh thủy lực cao cấp an toàn và nhẹ nhàng</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>Youth LIV Enchant 24 Disc 2022 </t>
+  </si>
+  <si>
+    <t>Y0</t>
+  </si>
+  <si>
+    <t>Single-Speed Bike</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Kids</t>
+  </si>
+  <si>
+    <t>Xe đạp trẻ em năng động cho bé</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Vicky VM20 Girl </t>
+  </si>
+  <si>
+    <t>Xe đạp trẻ em Vicky VM20 Girl – Xe phù hợp cho bé từ 6 – 11, Khung  Vicky Hi-Ten Steel 20″*11″, Ghi đông Small Rise, Phanh V-Brake, Thắng bố đùm, Lốp xe 20″*2.125, Trọng lượng 12kg, tải trọng 80kg</t>
+  </si>
+  <si>
+    <t>10 Speed Bike</t>
+  </si>
+  <si>
+    <t>V0</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>TrinX Junior 4.0 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xe đạp là món quà ý nghĩa nhất Bố Mẹ dành cho bé. Với người lớn xe đạp không chỉ là phương tiện giao thông lành mạnh mà còn là phương pháp hiệu quả để rèn luyện sức khỏe. Còn đối với trẻ em, xe đạp không chỉ là món đồ chơi bổ ích giúp các bé vận động hàng ngày mà còn mang lại nhiều tác dụng mà các bậc phụ huynh không thể ngờ tới. Bởi xe đạp sẽ giúp cho các bé trở nên thông minh, tự lập và có chứng kiến tốt ngay từ khi còn nhỏ. </t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>madaily</t>
+  </si>
+  <si>
+    <t>Hybrid Bike</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,8 +341,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,51 +631,992 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J30" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Hybrid"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bicycle-Rental/asset/bicycle.xlsx
+++ b/Bicycle-Rental/asset/bicycle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bicycle-Rental\Bicycle-Rental\asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\UIT\CS511\Bicycle-Rental\Bicycle-Rental\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DA69E2-F756-4D26-93D7-2023872B8A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4325F24D-0D6A-4A27-B91F-F197AE721BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -631,24 +631,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -712,7 +711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -744,7 +743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -776,7 +775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -808,7 +807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -840,7 +839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -872,7 +871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -904,7 +903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -936,7 +935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -968,7 +967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -1000,7 +999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1032,7 +1031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -1064,7 +1063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1096,7 +1095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -1128,7 +1127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -1160,7 +1159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1192,7 +1191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -1256,7 +1255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -1288,7 +1287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -1320,7 +1319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -1384,7 +1383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
@@ -1416,7 +1415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>77</v>
       </c>
@@ -1448,7 +1447,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -1480,7 +1479,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
@@ -1512,7 +1511,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,7 +1543,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1576,7 +1575,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1609,13 +1608,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J30" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Hybrid"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Bicycle-Rental/asset/bicycle.xlsx
+++ b/Bicycle-Rental/asset/bicycle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\UIT\CS511\Bicycle-Rental\Bicycle-Rental\asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Temp\Bicycle-Rental\Bicycle-Rental\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4325F24D-0D6A-4A27-B91F-F197AE721BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC87D7A0-457F-467C-8C87-E4C6461D4C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="121">
   <si>
     <t>maxe</t>
   </si>
@@ -288,6 +288,111 @@
   </si>
   <si>
     <t>Hybrid Bike</t>
+  </si>
+  <si>
+    <t>MTB Twitter Mantis 2.0</t>
+  </si>
+  <si>
+    <t>M0</t>
+  </si>
+  <si>
+    <t>Sở hữu phong cách năng động đậm chất thể thao, Xe đạp địa hình MTB Twitter Mantis 2.0 27.5 inch có trọng lượng 13.6 kg, phù hợp để những bạn trẻ năng động rèn luyện sức khỏe hay thử sức mình trên những hành trình mới. Xe có nhiều phiên bản màu cá tính để bạn tha hồ lựa chọn theo ý thích (tình trạng còn hàng tùy vào khu vực và thời điểm, bài viết sử dụng phiên bản màu đen để minh họa).</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>dl002</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>MTB Exotic 2658 4.0</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>dl004</t>
+  </si>
+  <si>
+    <t>Sở hữu vóc dáng khoẻ khoắn, thể thao cùng nhiều phiên bản màu sắc cá tính, xe đạp địa hình MTB Exotic 2658 4.0 AHHD 26 inch phục vụ cho đa dạng người dùng yêu thích đạp xe leo núi hay đam mê bộ môn vượt địa hình bằng xe đạp (tình trạng còn hàng của các mã màu tuỳ thuộc thời điểm và khu vực, bài viết sử dụng phiên bản màu đen đỏ để minh họa).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 </t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>City Thống Nhất New 26</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>Xe đạp đường phố City Thống Nhất New 26 26 inch là dòng xe đạp nổi tiếng được sản xuất tại Việt Nam với kiểu dáng trang nhã cũng 5 gam màu đa dạng để bạn thỏa sức lựa chọn. Đây là mẫu xe dành cho các bạn thuộc lứa tuổi học trò hoặc các chị sử dụng cho các hoạt động hằng ngày. Bạn có thể dạo phố, chạy xe thư giãn hay rèn luyện sức khỏe với mẫu xe Thống Nhất này.</t>
+  </si>
+  <si>
+    <t>MTB Java 650B-DOLOMIA-24S</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dl003 </t>
+  </si>
+  <si>
+    <t>Xe đạp địa hình MTB Java 650B-DOLOMIA-24S 27.5 inch size S sở hữu vẻ ngoài ấn tượng với thiết kế trẻ trung, gam màu bắt mắt người nhìn. Mẫu xe này không chỉ phù hợp với những chuyến đi xa như leo núi hay đi phượt, dã ngoại mà còn giúp các bạn trẻ rèn luyện sức khỏe. (Các phiên bản màu sắc còn hàng tùy theo từng khu vực và thời điểm).</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>MTB Giant Rincon 2 (2022)</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Với thiết kế thể thao, năng động, xe đạp địa hình MTB Giant Rincon 2 (2022) 29 inch Size S sở hữu ngoại hình mạnh mẽ, cá tính cùng nhiều phiên bản màu nổi bật (các phiên bản màu còn hàng tùy theo khu vực và thời điểm, bài viết đang sử dụng hình ảnh của sản phẩm màu xanh), mẫu xe này phù hợp với người dùng có chiều cao trung bình từ 162 - 172 cm. Mẫu xe phù hợp những tín đồ leo núi, vượt địa hình bằng xe đạp hay đơn giản là tập luyện thể thao hàng ngày. </t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>M17</t>
   </si>
 </sst>
 </file>
@@ -631,23 +736,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -711,7 +816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -743,7 +848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -775,7 +880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -807,7 +912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -839,7 +944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -871,7 +976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -903,7 +1008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -935,7 +1040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -967,7 +1072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -999,7 +1104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1031,7 +1136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -1063,7 +1168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1095,7 +1200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -1127,7 +1232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -1159,7 +1264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1191,7 +1296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
@@ -1223,7 +1328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -1255,7 +1360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -1287,7 +1392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -1319,7 +1424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
@@ -1351,7 +1456,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -1383,7 +1488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
@@ -1415,7 +1520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>77</v>
       </c>
@@ -1447,7 +1552,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -1479,7 +1584,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
@@ -1511,7 +1616,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,7 +1648,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1575,7 +1680,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1605,6 +1710,742 @@
       </c>
       <c r="J30" s="1" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
